--- a/school_management.xlsx
+++ b/school_management.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,6 +546,41 @@
       <c r="G3" t="inlineStr">
         <is>
           <t>MBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>8715</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>O98O88FI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Nikhil</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nikhil@mail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>8987789878</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>M.Tech.</t>
         </is>
       </c>
     </row>

--- a/school_management.xlsx
+++ b/school_management.xlsx
@@ -653,7 +653,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>B.Tech.</t>
+          <t>M.Tech.</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>M.Tech.</t>
+          <t>B.Tech.</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jeet Sir</t>
+          <t>Adarsh Sir</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Adarsh Sir</t>
+          <t>Jeet Sir</t>
         </is>
       </c>
     </row>

--- a/school_management.xlsx
+++ b/school_management.xlsx
@@ -595,7 +595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,6 +706,33 @@
         </is>
       </c>
       <c r="E4" t="inlineStr">
+        <is>
+          <t>MBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>S8796</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rahul Kr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>rahul@mail.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7666787898</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>MBA</t>
         </is>
@@ -794,7 +821,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rudra Sir</t>
+          <t>Rahul Kr</t>
         </is>
       </c>
     </row>
